--- a/example_data/EMA/label_corrected/dukoral-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/dukoral-epar-product-information_en.xlsx
@@ -760,7 +760,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -898,7 +898,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
